--- a/Planning/Timeline.xlsx
+++ b/Planning/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\TimeSheet\InsemiTimeSheet\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C810BC04-53BD-4A7F-9E65-631AEC7ED070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF9543E-3D42-4A3C-AF52-A2D5333CD056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{88478BF8-B7FE-475E-9017-8DB308B135E8}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>TimeSheet - SQL (Logging)</t>
   </si>
   <si>
-    <t>Integration with insemitech.com</t>
-  </si>
-  <si>
     <t>Searching, Editing, Approval</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Statistical Analysis, Exporting</t>
+  </si>
+  <si>
+    <t>Integration with insemitech.com - Database and UI</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -483,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
